--- a/docs/_static/fields.xlsx
+++ b/docs/_static/fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\projects\iemap-api-docs\docs\_static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89221691-9CE6-404C-A380-AD9F99569F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18BD3D7-BD8F-439F-A58C-D20F21171582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BFBB7C16-8C50-4458-94B1-A063213005A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFBB7C16-8C50-4458-94B1-A063213005A3}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,12 +1032,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,11 +1056,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1381,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C4253-7466-4086-A202-698967AFB53F}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,14 +1393,14 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>198</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>200</v>
       </c>
@@ -1434,14 +1433,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1452,8 +1451,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1463,8 +1462,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1474,8 +1473,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1485,11 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="1"/>
     </row>
   </sheetData>
@@ -1518,11 +1513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1580,11 +1575,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1635,11 +1630,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -2035,11 +2030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2085,21 +2080,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2107,21 +2102,21 @@
       <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2129,10 +2124,10 @@
       <c r="A11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2149,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2631228-4ADC-4C8A-8FFF-CAAAEB236142}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,11 +2156,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2346,14 +2341,14 @@
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -2467,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AF0C60-C24A-408D-9C16-B247880703D8}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,11 +2474,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2739,11 +2734,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -2821,6 +2816,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F79322ADFE2CA643A0121F29B0E5C6FB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2ac067e5e6e4057066099ba0df1613ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ef0dc92e-f76d-4b3c-abb1-9b509f3d249d" xmlns:ns4="7afa66c6-c77d-474d-b1f4-b1aecefa7b5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2fc474f2a5fba012b582c14bfcd1e53" ns3:_="" ns4:_="">
     <xsd:import namespace="ef0dc92e-f76d-4b3c-abb1-9b509f3d249d"/>
@@ -2991,15 +2995,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3007,6 +3002,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FFD3E2-6D27-47B2-95C9-CA41DFE33EEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6EFE5D-EC9E-4B6F-90B7-E4F76B77524F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3021,14 +3024,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FFD3E2-6D27-47B2-95C9-CA41DFE33EEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/_static/fields.xlsx
+++ b/docs/_static/fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\projects\iemap-api-docs\docs\_static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18BD3D7-BD8F-439F-A58C-D20F21171582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D8799-00A9-4683-9A30-53C9706EAF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFBB7C16-8C50-4458-94B1-A063213005A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BFBB7C16-8C50-4458-94B1-A063213005A3}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -132,42 +132,6 @@
     </r>
   </si>
   <si>
-    <t>isSimulation</t>
-  </si>
-  <si>
-    <r>
-      <t>True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF404040"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t> if the process is a atomic computing, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF404040"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF404040"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t> otherwise.</t>
-    </r>
-  </si>
-  <si>
     <t>PROCESS FIELDS</t>
   </si>
   <si>
@@ -370,9 +334,6 @@
   </si>
   <si>
     <t>lattice</t>
-  </si>
-  <si>
-    <t>Lattice</t>
   </si>
   <si>
     <t>sites</t>
@@ -823,6 +784,15 @@
   </si>
   <si>
     <t>Project label</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>Structure lattice, it contains (a,b,c) and (alpha,beta,gamma).</t>
+  </si>
+  <si>
+    <t>List of vectors, it contains the vectors that define the cell.</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,9 +997,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C4253-7466-4086-A202-698967AFB53F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1394,11 +1361,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1413,32 +1380,32 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1452,7 +1419,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1463,7 +1430,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1474,7 +1441,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1499,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFA66DF-51F3-4AD4-B256-DA055F438771}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,11 +1480,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1563,452 +1530,441 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="6" t="s">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="6" t="s">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="5" t="s">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2016,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60222785-BA79-452E-9115-C8953A5D6BA5}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,11 +1986,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2049,86 +2005,97 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2156,11 +2123,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2175,150 +2142,150 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -2327,7 +2294,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
@@ -2336,19 +2303,19 @@
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -2363,90 +2330,90 @@
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2474,11 +2441,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2493,252 +2460,252 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -2753,57 +2720,57 @@
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2816,15 +2783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F79322ADFE2CA643A0121F29B0E5C6FB" ma:contentTypeVersion="5" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2ac067e5e6e4057066099ba0df1613ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ef0dc92e-f76d-4b3c-abb1-9b509f3d249d" xmlns:ns4="7afa66c6-c77d-474d-b1f4-b1aecefa7b5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2fc474f2a5fba012b582c14bfcd1e53" ns3:_="" ns4:_="">
     <xsd:import namespace="ef0dc92e-f76d-4b3c-abb1-9b509f3d249d"/>
@@ -2995,6 +2953,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3002,14 +2969,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FFD3E2-6D27-47B2-95C9-CA41DFE33EEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6EFE5D-EC9E-4B6F-90B7-E4F76B77524F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3024,6 +2983,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FFD3E2-6D27-47B2-95C9-CA41DFE33EEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
